--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148422.5147097279</v>
+        <v>-149069.4872509119</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="D11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>60.24410049029191</v>
+        <v>24.68690330538615</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.565094327417383</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.99210285748821</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>68.3970259880698</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087796</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964389</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998886</v>
+        <v>31.5393227899888</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.425103864436259</v>
+        <v>0.4251038644361995</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938165</v>
+        <v>9.028675106938108</v>
       </c>
       <c r="U13" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882457</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692797</v>
+        <v>34.48632710692792</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740435</v>
+        <v>67.6425529274043</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298016</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.2986499077569817</v>
       </c>
     </row>
     <row r="14">
@@ -1607,23 +1607,23 @@
         <v>68.39702598806991</v>
       </c>
       <c r="C14" t="n">
-        <v>60.24410049029193</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>57.67900616287454</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.56509432741737</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087796</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964389</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998886</v>
+        <v>31.5393227899888</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.425103864436259</v>
+        <v>0.4251038644361995</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938165</v>
+        <v>9.028675106938108</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882457</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692797</v>
+        <v>34.48632710692792</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740435</v>
+        <v>67.6425529274043</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298016</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.2986499077569817</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.18629299084045</v>
+        <v>33.18629299084051</v>
       </c>
       <c r="C17" t="n">
-        <v>16.45497867838804</v>
+        <v>16.4549786783881</v>
       </c>
       <c r="D17" t="n">
-        <v>6.074615754043805</v>
+        <v>6.074615754043862</v>
       </c>
       <c r="E17" t="n">
-        <v>32.58791875473287</v>
+        <v>32.58791875473293</v>
       </c>
       <c r="F17" t="n">
-        <v>56.76374647998625</v>
+        <v>56.76374647998631</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521434</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>20.3314821306148</v>
+        <v>20.33148213061486</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.15695475068122</v>
+        <v>36.15695475068128</v>
       </c>
     </row>
     <row r="18">
@@ -2087,7 +2087,7 @@
         <v>6.074615754043805</v>
       </c>
       <c r="E20" t="n">
-        <v>32.58791875473288</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F20" t="n">
         <v>56.76374647998625</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U31" t="n">
         <v>65.0262529514072</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U34" t="n">
         <v>65.0262529514072</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.5816934994246</v>
+        <v>140.5816934994247</v>
       </c>
       <c r="C35" t="n">
         <v>123.8503791869722</v>
       </c>
       <c r="D35" t="n">
-        <v>113.4700162626279</v>
+        <v>113.470016262628</v>
       </c>
       <c r="E35" t="n">
-        <v>139.983319263317</v>
+        <v>139.9833192633171</v>
       </c>
       <c r="F35" t="n">
-        <v>164.1591469885704</v>
+        <v>164.1591469885705</v>
       </c>
       <c r="G35" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406719</v>
+        <v>90.44712491406727</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325528991</v>
+        <v>8.307410325529073</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054888</v>
+        <v>85.39850503054896</v>
       </c>
       <c r="W35" t="n">
-        <v>107.3954005085841</v>
+        <v>107.3954005085842</v>
       </c>
       <c r="X35" t="n">
-        <v>127.7268826391989</v>
+        <v>127.726882639199</v>
       </c>
       <c r="Y35" t="n">
-        <v>143.5523552592653</v>
+        <v>143.5523552592654</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.854630258029573</v>
+        <v>6.854630258029658</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.90665474686534</v>
+        <v>42.90665474686543</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968688</v>
+        <v>9.801634574968773</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544507</v>
+        <v>42.95786039544515</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>140.5816934994246</v>
+        <v>140.5816934994247</v>
       </c>
       <c r="C38" t="n">
         <v>123.8503791869722</v>
       </c>
       <c r="D38" t="n">
-        <v>113.4700162626279</v>
+        <v>113.470016262628</v>
       </c>
       <c r="E38" t="n">
-        <v>139.983319263317</v>
+        <v>139.9833192633171</v>
       </c>
       <c r="F38" t="n">
-        <v>164.1591469885704</v>
+        <v>164.1591469885705</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406719</v>
+        <v>90.44712491406727</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325528991</v>
+        <v>8.307410325529077</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054888</v>
+        <v>85.39850503054896</v>
       </c>
       <c r="W38" t="n">
-        <v>107.3954005085841</v>
+        <v>107.3954005085842</v>
       </c>
       <c r="X38" t="n">
-        <v>127.7268826391989</v>
+        <v>127.726882639199</v>
       </c>
       <c r="Y38" t="n">
-        <v>143.5523552592653</v>
+        <v>143.5523552592654</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.854630258029573</v>
+        <v>6.854630258029658</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.90665474686534</v>
+        <v>42.90665474686543</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968688</v>
+        <v>9.801634574968773</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544507</v>
+        <v>42.95786039544515</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.5816934994246</v>
+        <v>140.5816934994247</v>
       </c>
       <c r="C41" t="n">
         <v>123.8503791869722</v>
       </c>
       <c r="D41" t="n">
-        <v>113.4700162626279</v>
+        <v>113.470016262628</v>
       </c>
       <c r="E41" t="n">
-        <v>139.983319263317</v>
+        <v>139.9833192633171</v>
       </c>
       <c r="F41" t="n">
-        <v>164.1591469885704</v>
+        <v>164.1591469885705</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406719</v>
+        <v>90.44712491406727</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325528988</v>
+        <v>8.307410325529073</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054888</v>
+        <v>85.39850503054896</v>
       </c>
       <c r="W41" t="n">
-        <v>107.3954005085841</v>
+        <v>107.3954005085842</v>
       </c>
       <c r="X41" t="n">
-        <v>127.7268826391989</v>
+        <v>127.726882639199</v>
       </c>
       <c r="Y41" t="n">
-        <v>143.5523552592653</v>
+        <v>143.5523552592654</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.854630258029573</v>
+        <v>6.854630258029658</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.90665474686534</v>
+        <v>42.90665474686543</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968688</v>
+        <v>9.801634574968773</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544507</v>
+        <v>42.95786039544515</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.5816934994246</v>
+        <v>140.5816934994247</v>
       </c>
       <c r="C44" t="n">
         <v>123.8503791869722</v>
       </c>
       <c r="D44" t="n">
-        <v>113.4700162626279</v>
+        <v>113.470016262628</v>
       </c>
       <c r="E44" t="n">
-        <v>139.983319263317</v>
+        <v>139.9833192633171</v>
       </c>
       <c r="F44" t="n">
-        <v>164.1591469885704</v>
+        <v>164.1591469885705</v>
       </c>
       <c r="G44" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H44" t="n">
-        <v>90.44712491406719</v>
+        <v>90.44712491406727</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325528988</v>
+        <v>8.307410325529073</v>
       </c>
       <c r="V44" t="n">
-        <v>85.39850503054888</v>
+        <v>85.39850503054896</v>
       </c>
       <c r="W44" t="n">
-        <v>107.3954005085841</v>
+        <v>107.3954005085842</v>
       </c>
       <c r="X44" t="n">
-        <v>127.7268826391989</v>
+        <v>127.726882639199</v>
       </c>
       <c r="Y44" t="n">
         <v>143.5523552592654</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.854630258029573</v>
+        <v>6.854630258029658</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.90665474686534</v>
+        <v>42.90665474686543</v>
       </c>
       <c r="V46" t="n">
-        <v>9.801634574968688</v>
+        <v>9.801634574968773</v>
       </c>
       <c r="W46" t="n">
-        <v>42.95786039544507</v>
+        <v>42.95786039544515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.5001989138252</v>
+        <v>168.5838381209908</v>
       </c>
       <c r="C11" t="n">
-        <v>204.5001989138252</v>
+        <v>99.49593308253645</v>
       </c>
       <c r="D11" t="n">
-        <v>135.4122938753707</v>
+        <v>99.49593308253645</v>
       </c>
       <c r="E11" t="n">
-        <v>74.55966711750006</v>
+        <v>74.55966711749994</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711750006</v>
+        <v>74.55966711749994</v>
       </c>
       <c r="G11" t="n">
-        <v>5.471762079045593</v>
+        <v>74.55966711749994</v>
       </c>
       <c r="H11" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439195</v>
       </c>
       <c r="J11" t="n">
-        <v>103.2801178825811</v>
+        <v>89.20669938861754</v>
       </c>
       <c r="K11" t="n">
-        <v>103.2801178825811</v>
+        <v>89.20669938861754</v>
       </c>
       <c r="L11" t="n">
-        <v>103.2801178825811</v>
+        <v>147.4925707399808</v>
       </c>
       <c r="M11" t="n">
-        <v>103.2801178825811</v>
+        <v>147.4925707399808</v>
       </c>
       <c r="N11" t="n">
-        <v>103.2801178825811</v>
+        <v>147.4925707399808</v>
       </c>
       <c r="O11" t="n">
-        <v>170.9931736107703</v>
+        <v>215.2056264681699</v>
       </c>
       <c r="P11" t="n">
-        <v>215.2056264681705</v>
+        <v>215.2056264681699</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2056264681705</v>
+        <v>215.2056264681699</v>
       </c>
       <c r="R11" t="n">
-        <v>251.0794834348</v>
+        <v>251.0794834347995</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522792</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811505</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594452</v>
       </c>
       <c r="V11" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594452</v>
       </c>
       <c r="W11" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594452</v>
       </c>
       <c r="X11" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594452</v>
       </c>
       <c r="Y11" t="n">
-        <v>273.5881039522797</v>
+        <v>168.5838381209908</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="C12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="D12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="E12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="F12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="G12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="H12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="I12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="J12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="K12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="L12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="M12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="N12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="O12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="P12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291699</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711508</v>
       </c>
       <c r="W12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="X12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="C13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="D13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="E13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
       <c r="F13" t="n">
-        <v>5.471762079045593</v>
+        <v>59.09917806164322</v>
       </c>
       <c r="G13" t="n">
-        <v>5.471762079045593</v>
+        <v>59.09917806164322</v>
       </c>
       <c r="H13" t="n">
-        <v>5.471762079045593</v>
+        <v>59.09917806164322</v>
       </c>
       <c r="I13" t="n">
-        <v>5.471762079045593</v>
+        <v>59.09917806164322</v>
       </c>
       <c r="J13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898323</v>
       </c>
       <c r="K13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898323</v>
       </c>
       <c r="L13" t="n">
-        <v>73.18481780723481</v>
+        <v>126.8122337898323</v>
       </c>
       <c r="M13" t="n">
-        <v>140.897873535424</v>
+        <v>126.8122337898323</v>
       </c>
       <c r="N13" t="n">
-        <v>140.897873535424</v>
+        <v>194.5252895180214</v>
       </c>
       <c r="O13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180214</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180214</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180214</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180214</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751566</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297648</v>
+        <v>184.9760178297645</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693357</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395397</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617184</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537551</v>
+        <v>5.773428652537485</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.4122938753707</v>
+        <v>132.821289504242</v>
       </c>
       <c r="C14" t="n">
+        <v>132.821289504242</v>
+      </c>
+      <c r="D14" t="n">
+        <v>132.821289504242</v>
+      </c>
+      <c r="E14" t="n">
+        <v>132.821289504242</v>
+      </c>
+      <c r="F14" t="n">
         <v>74.55966711750006</v>
       </c>
-      <c r="D14" t="n">
-        <v>5.471762079045593</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.471762079045593</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.471762079045593</v>
-      </c>
       <c r="G14" t="n">
-        <v>5.471762079045593</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="H14" t="n">
         <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439196</v>
       </c>
       <c r="J14" t="n">
-        <v>68.59562689200101</v>
+        <v>87.57129955970711</v>
       </c>
       <c r="K14" t="n">
-        <v>68.59562689200101</v>
+        <v>147.4925707399811</v>
       </c>
       <c r="L14" t="n">
-        <v>126.8814982433642</v>
+        <v>147.4925707399811</v>
       </c>
       <c r="M14" t="n">
-        <v>194.5945539715534</v>
+        <v>147.4925707399811</v>
       </c>
       <c r="N14" t="n">
-        <v>194.5945539715534</v>
+        <v>215.2056264681704</v>
       </c>
       <c r="O14" t="n">
-        <v>194.5945539715534</v>
+        <v>215.2056264681704</v>
       </c>
       <c r="P14" t="n">
-        <v>251.0794834348</v>
+        <v>215.2056264681704</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.0794834348</v>
+        <v>215.2056264681704</v>
       </c>
       <c r="R14" t="n">
         <v>251.0794834348</v>
@@ -5306,22 +5306,22 @@
         <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.997099581151</v>
       </c>
       <c r="U14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.997099581151</v>
       </c>
       <c r="V14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.997099581151</v>
       </c>
       <c r="W14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.997099581151</v>
       </c>
       <c r="X14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.997099581151</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.5001989138252</v>
+        <v>201.9091945426965</v>
       </c>
     </row>
     <row r="15">
@@ -5367,31 +5367,31 @@
         <v>5.471762079045593</v>
       </c>
       <c r="N15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="O15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="P15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452082</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291699</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711509</v>
       </c>
       <c r="W15" t="n">
         <v>5.471762079045593</v>
@@ -5422,61 +5422,61 @@
         <v>5.471762079045593</v>
       </c>
       <c r="F16" t="n">
-        <v>5.471762079045593</v>
+        <v>68.80564516315118</v>
       </c>
       <c r="G16" t="n">
-        <v>5.471762079045593</v>
+        <v>68.80564516315118</v>
       </c>
       <c r="H16" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="I16" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="J16" t="n">
-        <v>73.18481780723481</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="K16" t="n">
-        <v>73.18481780723481</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="L16" t="n">
-        <v>73.18481780723481</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="M16" t="n">
-        <v>73.18481780723481</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="N16" t="n">
-        <v>73.18481780723481</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="O16" t="n">
-        <v>140.897873535424</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="P16" t="n">
-        <v>140.897873535424</v>
+        <v>126.8122337898322</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180214</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180214</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751566</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297648</v>
+        <v>184.9760178297645</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693357</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395397</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617185</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537551</v>
+        <v>5.773428652537494</v>
       </c>
       <c r="Y16" t="n">
         <v>5.471762079045593</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278991</v>
       </c>
       <c r="C17" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436687</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345338</v>
+        <v>160.2504026345334</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832885</v>
+        <v>127.3333129832881</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673671</v>
+        <v>69.99619532673685</v>
       </c>
       <c r="G17" t="n">
         <v>5.471762079045593</v>
@@ -5510,55 +5510,55 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="J17" t="n">
-        <v>48.67201024445708</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="K17" t="n">
-        <v>48.67201024445708</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="L17" t="n">
-        <v>48.67201024445708</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="M17" t="n">
-        <v>48.67201024445708</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="N17" t="n">
-        <v>116.3850659726463</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="O17" t="n">
-        <v>184.0981217008355</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="P17" t="n">
-        <v>184.0981217008355</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="Q17" t="n">
-        <v>184.0981217008355</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="R17" t="n">
-        <v>184.0981217008355</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="S17" t="n">
-        <v>184.0981217008355</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="T17" t="n">
-        <v>184.0981217008355</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="U17" t="n">
-        <v>251.8111774290248</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V17" t="n">
         <v>273.5881039522797</v>
       </c>
       <c r="W17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522796</v>
       </c>
       <c r="X17" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152949</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994552</v>
       </c>
     </row>
     <row r="18">
@@ -5744,43 +5744,43 @@
         <v>5.471762079045593</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I20" t="n">
-        <v>22.25055491761735</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="J20" t="n">
-        <v>22.25055491761735</v>
+        <v>140.897873535424</v>
       </c>
       <c r="K20" t="n">
-        <v>22.25055491761735</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="L20" t="n">
-        <v>22.25055491761735</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="M20" t="n">
-        <v>22.25055491761735</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="N20" t="n">
-        <v>22.25055491761735</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="O20" t="n">
-        <v>89.96361064580657</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="P20" t="n">
-        <v>89.96361064580657</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.96361064580657</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="R20" t="n">
-        <v>157.6766663739958</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="S20" t="n">
-        <v>225.389722102185</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="T20" t="n">
-        <v>225.389722102185</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="U20" t="n">
         <v>273.5881039522797</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
     </row>
     <row r="23">
@@ -5987,37 +5987,37 @@
         <v>5.471762079045594</v>
       </c>
       <c r="J23" t="n">
-        <v>5.471762079045594</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="K23" t="n">
-        <v>5.471762079045594</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="L23" t="n">
-        <v>73.18481780723482</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="M23" t="n">
-        <v>140.8978735354241</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="N23" t="n">
-        <v>140.8978735354241</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="O23" t="n">
+        <v>138.1619924959012</v>
+      </c>
+      <c r="P23" t="n">
+        <v>138.1619924959012</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>138.1619924959012</v>
+      </c>
+      <c r="R23" t="n">
         <v>205.8750482240905</v>
       </c>
-      <c r="P23" t="n">
-        <v>273.5881039522797</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>273.5881039522797</v>
-      </c>
-      <c r="R23" t="n">
-        <v>273.5881039522797</v>
-      </c>
       <c r="S23" t="n">
-        <v>273.5881039522797</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="T23" t="n">
-        <v>273.5881039522797</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="U23" t="n">
         <v>273.5881039522797</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923731</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C26" t="n">
-        <v>832.575947384783</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522883</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776834</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F26" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G26" t="n">
         <v>148.3684072267213</v>
@@ -6221,34 +6221,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>67.29938996034309</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J26" t="n">
-        <v>67.29938996034309</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="K26" t="n">
-        <v>262.8403874419362</v>
+        <v>500.2772759974742</v>
       </c>
       <c r="L26" t="n">
-        <v>323.6657021774427</v>
+        <v>799.78953265069</v>
       </c>
       <c r="M26" t="n">
-        <v>752.6407026255055</v>
+        <v>873.6893985824673</v>
       </c>
       <c r="N26" t="n">
-        <v>1181.615703073568</v>
+        <v>949.7430116530121</v>
       </c>
       <c r="O26" t="n">
-        <v>1252.622734799366</v>
+        <v>1378.718012101075</v>
       </c>
       <c r="P26" t="n">
-        <v>1642.971057580115</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="Q26" t="n">
-        <v>1694.819024691905</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R26" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S26" t="n">
         <v>1733.232325042678</v>
@@ -6266,10 +6266,10 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y26" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="27">
@@ -6327,7 +6327,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="R27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="S27" t="n">
         <v>78.59820166294284</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.66464650085356</v>
+        <v>77.4305390050947</v>
       </c>
       <c r="C28" t="n">
-        <v>34.66464650085356</v>
+        <v>77.4305390050947</v>
       </c>
       <c r="D28" t="n">
-        <v>34.66464650085356</v>
+        <v>77.4305390050947</v>
       </c>
       <c r="E28" t="n">
-        <v>34.66464650085356</v>
+        <v>77.4305390050947</v>
       </c>
       <c r="F28" t="n">
-        <v>34.66464650085356</v>
+        <v>77.4305390050947</v>
       </c>
       <c r="G28" t="n">
-        <v>34.66464650085356</v>
+        <v>77.4305390050947</v>
       </c>
       <c r="H28" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="I28" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="J28" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="K28" t="n">
         <v>100.2436934660114</v>
@@ -6427,7 +6427,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631735</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923729</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847828</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522881</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776831</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F29" t="n">
-        <v>343.7160714977717</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6461,31 +6461,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="J29" t="n">
-        <v>253.7422394183659</v>
+        <v>116.1447933136834</v>
       </c>
       <c r="K29" t="n">
-        <v>649.9430707660543</v>
+        <v>178.6055078781006</v>
       </c>
       <c r="L29" t="n">
-        <v>649.9430707660543</v>
+        <v>178.6055078781006</v>
       </c>
       <c r="M29" t="n">
-        <v>1078.918071214117</v>
+        <v>580.0001560662425</v>
       </c>
       <c r="N29" t="n">
-        <v>1154.971684284662</v>
+        <v>580.0001560662425</v>
       </c>
       <c r="O29" t="n">
-        <v>1583.946684732725</v>
+        <v>1008.975156514305</v>
       </c>
       <c r="P29" t="n">
-        <v>1642.971057580115</v>
+        <v>1399.323479295054</v>
       </c>
       <c r="Q29" t="n">
-        <v>1694.819024691905</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R29" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6503,7 +6503,7 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y29" t="n">
         <v>1144.365108087288</v>
@@ -6537,7 +6537,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="J30" t="n">
         <v>78.59820166294284</v>
@@ -6598,40 +6598,40 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>34.66464650085356</v>
+        <v>75.31567756393351</v>
       </c>
       <c r="D31" t="n">
-        <v>34.66464650085356</v>
+        <v>75.31567756393351</v>
       </c>
       <c r="E31" t="n">
-        <v>34.66464650085356</v>
+        <v>75.31567756393351</v>
       </c>
       <c r="F31" t="n">
-        <v>34.66464650085356</v>
+        <v>75.31567756393351</v>
       </c>
       <c r="G31" t="n">
-        <v>87.45674017754644</v>
+        <v>75.31567756393351</v>
       </c>
       <c r="H31" t="n">
-        <v>87.45674017754644</v>
+        <v>75.31567756393351</v>
       </c>
       <c r="I31" t="n">
-        <v>87.45674017754644</v>
+        <v>147.8486586083657</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45674017754644</v>
+        <v>147.8486586083657</v>
       </c>
       <c r="K31" t="n">
-        <v>87.45674017754644</v>
+        <v>147.8486586083657</v>
       </c>
       <c r="L31" t="n">
-        <v>87.45674017754644</v>
+        <v>147.8486586083657</v>
       </c>
       <c r="M31" t="n">
-        <v>87.45674017754644</v>
+        <v>147.8486586083657</v>
       </c>
       <c r="N31" t="n">
-        <v>210.0320876678294</v>
+        <v>147.8486586083657</v>
       </c>
       <c r="O31" t="n">
         <v>210.0320876678294</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923726</v>
+        <v>980.0203689923732</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847829</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522882</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776833</v>
+        <v>531.8764201776835</v>
       </c>
       <c r="F32" t="n">
-        <v>343.7160714977718</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G32" t="n">
         <v>148.3684072267213</v>
@@ -6695,31 +6695,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034309</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J32" t="n">
-        <v>148.7795367731729</v>
+        <v>222.81858677106</v>
       </c>
       <c r="K32" t="n">
-        <v>544.9803681208614</v>
+        <v>397.6582394271609</v>
       </c>
       <c r="L32" t="n">
-        <v>605.8056828563678</v>
+        <v>826.6332398752237</v>
       </c>
       <c r="M32" t="n">
-        <v>605.8056828563678</v>
+        <v>1255.608240323287</v>
       </c>
       <c r="N32" t="n">
-        <v>949.737406350374</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="O32" t="n">
-        <v>1378.712406798437</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="P32" t="n">
-        <v>1437.736779645827</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q32" t="n">
-        <v>1708.184261141055</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="33">
@@ -6762,13 +6762,13 @@
         <v>34.66464650085356</v>
       </c>
       <c r="E33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H33" t="n">
         <v>78.59820166294284</v>
@@ -6850,31 +6850,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="H34" t="n">
-        <v>34.66464650085356</v>
+        <v>95.21067851167777</v>
       </c>
       <c r="I34" t="n">
-        <v>34.66464650085356</v>
+        <v>167.74365955611</v>
       </c>
       <c r="J34" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="K34" t="n">
-        <v>120.9026283420858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="L34" t="n">
-        <v>120.9026283420858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="M34" t="n">
-        <v>120.9026283420858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="N34" t="n">
-        <v>120.9026283420858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="O34" t="n">
-        <v>120.9026283420858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="P34" t="n">
-        <v>120.9026283420858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q34" t="n">
         <v>210.0320876678294</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767095</v>
+        <v>840.4904359767108</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585561</v>
+        <v>715.3890428585571</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154975</v>
+        <v>600.7728648154985</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303289</v>
+        <v>459.3755726303297</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398537</v>
+        <v>293.5582524398545</v>
       </c>
       <c r="G35" t="n">
-        <v>120.5536166582395</v>
+        <v>120.5536166582396</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I35" t="n">
-        <v>71.86863139650063</v>
+        <v>83.72603010379389</v>
       </c>
       <c r="J35" t="n">
-        <v>175.2471804318268</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K35" t="n">
-        <v>259.6062972187405</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="L35" t="n">
-        <v>620.8682419386139</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="M35" t="n">
-        <v>620.8682419386139</v>
+        <v>605.872790007117</v>
       </c>
       <c r="N35" t="n">
-        <v>896.7666658422315</v>
+        <v>967.1347347269907</v>
       </c>
       <c r="O35" t="n">
-        <v>1258.028610562105</v>
+        <v>1060.040168675285</v>
       </c>
       <c r="P35" t="n">
-        <v>1338.951385631991</v>
+        <v>1060.040168675285</v>
       </c>
       <c r="Q35" t="n">
-        <v>1412.697754966278</v>
+        <v>1352.38605239301</v>
       </c>
       <c r="R35" t="n">
-        <v>1412.697754966278</v>
+        <v>1412.697754966279</v>
       </c>
       <c r="S35" t="n">
-        <v>1459.644221090397</v>
+        <v>1459.644221090399</v>
       </c>
       <c r="T35" t="n">
-        <v>1459.644221090397</v>
+        <v>1459.644221090399</v>
       </c>
       <c r="U35" t="n">
-        <v>1451.252897529257</v>
+        <v>1451.252897529258</v>
       </c>
       <c r="V35" t="n">
-        <v>1364.991781336783</v>
+        <v>1364.991781336785</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.51157880286</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631952</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.4921465821886</v>
+        <v>982.4921465821902</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.825358883706</v>
+        <v>110.3259016329355</v>
       </c>
       <c r="R37" t="n">
-        <v>125.825358883706</v>
+        <v>110.3259016329355</v>
       </c>
       <c r="S37" t="n">
-        <v>125.825358883706</v>
+        <v>110.3259016329355</v>
       </c>
       <c r="T37" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384205</v>
+        <v>82.48530358384224</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902519</v>
+        <v>72.58466259902529</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767098</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585561</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154975</v>
+        <v>600.7728648154979</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303288</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398535</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G38" t="n">
-        <v>120.5536166582395</v>
+        <v>120.5536166582396</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I38" t="n">
-        <v>31.66892542819074</v>
+        <v>83.72603010379389</v>
       </c>
       <c r="J38" t="n">
-        <v>135.047474463517</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K38" t="n">
-        <v>219.4065912504306</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="L38" t="n">
-        <v>580.668535970304</v>
+        <v>806.8275156270745</v>
       </c>
       <c r="M38" t="n">
-        <v>788.2599443640621</v>
+        <v>1156.659441152333</v>
       </c>
       <c r="N38" t="n">
-        <v>886.2119596571032</v>
+        <v>1156.659441152333</v>
       </c>
       <c r="O38" t="n">
-        <v>979.1173936053975</v>
+        <v>1249.564875100627</v>
       </c>
       <c r="P38" t="n">
-        <v>1060.040168675284</v>
+        <v>1330.487650170514</v>
       </c>
       <c r="Q38" t="n">
-        <v>1352.386052393009</v>
+        <v>1330.487650170514</v>
       </c>
       <c r="R38" t="n">
-        <v>1412.697754966278</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S38" t="n">
-        <v>1459.644221090397</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T38" t="n">
-        <v>1459.644221090397</v>
+        <v>1459.644221090399</v>
       </c>
       <c r="U38" t="n">
-        <v>1451.252897529257</v>
+        <v>1451.252897529258</v>
       </c>
       <c r="V38" t="n">
         <v>1364.991781336784</v>
       </c>
       <c r="W38" t="n">
-        <v>1256.51157880286</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631952</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821892</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H39" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I39" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J39" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K39" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L39" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M39" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N39" t="n">
-        <v>36.11675336931257</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O39" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="F40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="L40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="M40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="N40" t="n">
-        <v>29.19288442180795</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="O40" t="n">
-        <v>29.19288442180795</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="P40" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R40" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S40" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="T40" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="U40" t="n">
-        <v>82.48530358384205</v>
+        <v>82.48530358384224</v>
       </c>
       <c r="V40" t="n">
-        <v>72.58466259902519</v>
+        <v>72.58466259902529</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X40" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767098</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585561</v>
+        <v>715.3890428585566</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154975</v>
+        <v>600.7728648154982</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303289</v>
+        <v>459.3755726303295</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398537</v>
+        <v>293.5582524398544</v>
       </c>
       <c r="G41" t="n">
-        <v>120.5536166582395</v>
+        <v>120.5536166582396</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379393</v>
+        <v>83.72603010379389</v>
       </c>
       <c r="J41" t="n">
-        <v>187.1045791391202</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K41" t="n">
-        <v>271.4636959260338</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="L41" t="n">
-        <v>354.1874128840367</v>
+        <v>528.2892878652036</v>
       </c>
       <c r="M41" t="n">
-        <v>715.4493576039101</v>
+        <v>624.0875560194772</v>
       </c>
       <c r="N41" t="n">
-        <v>715.4493576039101</v>
+        <v>695.462260618065</v>
       </c>
       <c r="O41" t="n">
-        <v>808.3547915522045</v>
+        <v>788.3676945663593</v>
       </c>
       <c r="P41" t="n">
-        <v>1085.088232576907</v>
+        <v>1149.629639286233</v>
       </c>
       <c r="Q41" t="n">
-        <v>1377.434116294632</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R41" t="n">
-        <v>1437.745818867901</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S41" t="n">
-        <v>1437.745818867901</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T41" t="n">
-        <v>1459.644221090397</v>
+        <v>1459.644221090399</v>
       </c>
       <c r="U41" t="n">
-        <v>1451.252897529257</v>
+        <v>1451.252897529258</v>
       </c>
       <c r="V41" t="n">
         <v>1364.991781336784</v>
       </c>
       <c r="W41" t="n">
-        <v>1256.51157880286</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X41" t="n">
-        <v>1127.494525631952</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821892</v>
+        <v>982.4921465821899</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="G42" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="H42" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="I42" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="J42" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="K42" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="L42" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="M42" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H43" t="n">
-        <v>32.38507935689059</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I43" t="n">
-        <v>32.38507935689059</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J43" t="n">
-        <v>32.38507935689059</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K43" t="n">
-        <v>32.38507935689059</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L43" t="n">
-        <v>32.38507935689059</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M43" t="n">
-        <v>32.38507935689059</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N43" t="n">
-        <v>32.38507935689059</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O43" t="n">
-        <v>32.38507935689059</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P43" t="n">
-        <v>32.38507935689059</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.38507935689059</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R43" t="n">
-        <v>110.3259016329351</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S43" t="n">
-        <v>110.3259016329351</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="T43" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384205</v>
+        <v>82.48530358384224</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902519</v>
+        <v>72.58466259902529</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.49043597671</v>
+        <v>840.4904359767114</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585563</v>
+        <v>715.3890428585576</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154978</v>
+        <v>600.7728648154989</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303291</v>
+        <v>459.3755726303297</v>
       </c>
       <c r="F44" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398544</v>
       </c>
       <c r="G44" t="n">
-        <v>120.5536166582395</v>
+        <v>120.5536166582396</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379393</v>
+        <v>83.72603010379389</v>
       </c>
       <c r="J44" t="n">
-        <v>361.2064541202873</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K44" t="n">
-        <v>722.4683988401607</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="L44" t="n">
-        <v>810.4151740597057</v>
+        <v>528.2892878652036</v>
       </c>
       <c r="M44" t="n">
-        <v>906.2134422139794</v>
+        <v>846.2033207766469</v>
       </c>
       <c r="N44" t="n">
-        <v>1004.165457507021</v>
+        <v>944.155336069688</v>
       </c>
       <c r="O44" t="n">
-        <v>1004.165457507021</v>
+        <v>1037.060770017982</v>
       </c>
       <c r="P44" t="n">
-        <v>1085.088232576907</v>
+        <v>1256.741280836227</v>
       </c>
       <c r="Q44" t="n">
-        <v>1377.434116294632</v>
+        <v>1330.487650170514</v>
       </c>
       <c r="R44" t="n">
-        <v>1437.745818867901</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S44" t="n">
-        <v>1437.745818867901</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T44" t="n">
-        <v>1459.644221090397</v>
+        <v>1459.644221090399</v>
       </c>
       <c r="U44" t="n">
-        <v>1451.252897529257</v>
+        <v>1451.252897529258</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336784</v>
+        <v>1364.991781336785</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.51157880286</v>
+        <v>1256.511578802862</v>
       </c>
       <c r="X44" t="n">
-        <v>1127.494525631952</v>
+        <v>1127.494525631954</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821894</v>
+        <v>982.4921465821909</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="F45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="G45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="H45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="I45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="J45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="K45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="L45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="M45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="N45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="O45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="P45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="R45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="S45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931257</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931268</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180795</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19288442180795</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="K46" t="n">
-        <v>29.19288442180795</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="L46" t="n">
-        <v>29.19288442180795</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="M46" t="n">
-        <v>29.19288442180795</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="N46" t="n">
-        <v>29.19288442180795</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="O46" t="n">
-        <v>125.825358883706</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="P46" t="n">
-        <v>125.825358883706</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.825358883706</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="R46" t="n">
-        <v>125.825358883706</v>
+        <v>123.6242676887366</v>
       </c>
       <c r="S46" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="T46" t="n">
-        <v>125.825358883706</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384205</v>
+        <v>82.48530358384224</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902519</v>
+        <v>72.58466259902529</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180795</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
   </sheetData>
@@ -8690,13 +8690,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L11" t="n">
-        <v>61.93543906902947</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634112</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>50.61218665367576</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8848,10 +8848,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>157.9234874142799</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8936,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>81.30719271909697</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>82.51338996591643</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>118.2982863334662</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9094,13 +9094,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>138.7119396886106</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>263.2232123978548</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>241.0979211289993</v>
       </c>
       <c r="M26" t="n">
-        <v>358.661752036652</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>356.486249876281</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>361.5838067901666</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.121661238929647</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10042,7 +10042,7 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>138.9873192976592</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>159.5754064333817</v>
       </c>
       <c r="M29" t="n">
-        <v>445.4069211365212</v>
+        <v>330.8028103599642</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>13.87842297690624</v>
       </c>
       <c r="O29" t="n">
         <v>361.5838067901666</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O31" t="n">
-        <v>106.751788516009</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>113.5140788804886</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>371.8683694066225</v>
       </c>
       <c r="M32" t="n">
-        <v>95.61027213247908</v>
+        <v>358.661752036652</v>
       </c>
       <c r="N32" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>361.5838067901666</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q32" t="n">
         <v>220.8075902863009</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10507,19 +10507,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O34" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>281.3517452140106</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>65.16055651075003</v>
       </c>
       <c r="N35" t="n">
-        <v>179.7438470813904</v>
+        <v>265.9696256836693</v>
       </c>
       <c r="O35" t="n">
-        <v>271.0671825975546</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10741,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.98169097563226</v>
+        <v>28.7150135679952</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>434.3676631324684</v>
+        <v>281.3517452140109</v>
       </c>
       <c r="M38" t="n">
-        <v>112.9223638782671</v>
+        <v>256.5996539100858</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>40.85873687737491</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10990,13 +10990,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>268.1451278440401</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>98.39513092264357</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>197.7885514695112</v>
+        <v>283.1708784343306</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>39.84850065532432</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11221,13 +11221,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>279.6998261949088</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.27581642580013</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>100.3939884565846</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>140.1593290387455</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>13.42183445564772</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11461,10 +11461,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.86936004331395</v>
+        <v>165.2663860313838</v>
       </c>
       <c r="C11" t="n">
-        <v>148.5350717189314</v>
+        <v>80.13804573086159</v>
       </c>
       <c r="D11" t="n">
-        <v>69.75768280651729</v>
+        <v>138.1547087945872</v>
       </c>
       <c r="E11" t="n">
-        <v>104.4239113049844</v>
+        <v>139.9811084898901</v>
       </c>
       <c r="F11" t="n">
-        <v>188.8438395205297</v>
+        <v>188.8438395205296</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676878</v>
+        <v>195.9592819557576</v>
       </c>
       <c r="H11" t="n">
-        <v>115.1318174460265</v>
+        <v>46.73479145795662</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417441</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748828</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625082</v>
+        <v>110.0831975625081</v>
       </c>
       <c r="W11" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="X11" t="n">
-        <v>152.4115751711582</v>
+        <v>152.4115751711581</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.2370477912246</v>
+        <v>99.84002180315477</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.86936004331395</v>
+        <v>96.86936004331389</v>
       </c>
       <c r="C14" t="n">
-        <v>88.29097122863951</v>
+        <v>148.5350717189314</v>
       </c>
       <c r="D14" t="n">
-        <v>69.75768280651729</v>
+        <v>138.1547087945872</v>
       </c>
       <c r="E14" t="n">
-        <v>164.6680117952763</v>
+        <v>164.6680117952762</v>
       </c>
       <c r="F14" t="n">
-        <v>188.8438395205297</v>
+        <v>131.1648333576551</v>
       </c>
       <c r="G14" t="n">
-        <v>195.9592819557577</v>
+        <v>195.9592819557576</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460265</v>
+        <v>46.7347914579565</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417441</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748828</v>
+        <v>32.99210285748822</v>
       </c>
       <c r="V14" t="n">
-        <v>110.0831975625082</v>
+        <v>110.0831975625081</v>
       </c>
       <c r="W14" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711582</v>
+        <v>152.4115751711581</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.84002180315471</v>
+        <v>99.84002180315466</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797758.9584404902</v>
+        <v>797758.9584404904</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797758.9584404902</v>
+        <v>797758.9584404904</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>507597.7360973376</v>
+      </c>
+      <c r="C2" t="n">
         <v>507597.7360973377</v>
-      </c>
-      <c r="C2" t="n">
-        <v>507597.7360973378</v>
       </c>
       <c r="D2" t="n">
         <v>507597.7360973377</v>
       </c>
       <c r="E2" t="n">
-        <v>436587.3511688083</v>
+        <v>436587.3511688084</v>
       </c>
       <c r="F2" t="n">
-        <v>436587.3511688082</v>
+        <v>436587.3511688084</v>
       </c>
       <c r="G2" t="n">
         <v>508699.6303843351</v>
@@ -26335,25 +26335,25 @@
         <v>508699.6303843351</v>
       </c>
       <c r="J2" t="n">
-        <v>508699.6303843351</v>
+        <v>508699.6303843352</v>
       </c>
       <c r="K2" t="n">
-        <v>508699.6303843353</v>
+        <v>508699.630384335</v>
       </c>
       <c r="L2" t="n">
-        <v>508699.630384335</v>
+        <v>508699.6303843352</v>
       </c>
       <c r="M2" t="n">
         <v>508699.6303843352</v>
       </c>
       <c r="N2" t="n">
-        <v>508699.6303843356</v>
+        <v>508699.6303843354</v>
       </c>
       <c r="O2" t="n">
-        <v>508699.6303843356</v>
+        <v>508699.6303843354</v>
       </c>
       <c r="P2" t="n">
-        <v>508699.6303843353</v>
+        <v>508699.6303843354</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039991</v>
+        <v>284205.3843039992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324346</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>166624.8083432522</v>
+        <v>166624.8083432523</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324346</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363349</v>
+        <v>17695.67856363346</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750816</v>
+        <v>71148.0201975082</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.676015374</v>
+        <v>361458.6760153741</v>
       </c>
       <c r="F4" t="n">
         <v>361458.6760153741</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="L4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="N4" t="n">
         <v>431062.8369613772</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
     </row>
     <row r="5">
@@ -26500,16 +26500,16 @@
         <v>47341.26675884315</v>
       </c>
       <c r="M5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022614</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022614</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022614</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022614</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10418.01546164606</v>
+        <v>10413.60788449801</v>
       </c>
       <c r="C6" t="n">
-        <v>10418.01546164617</v>
+        <v>10413.60788449807</v>
       </c>
       <c r="D6" t="n">
-        <v>10418.01546164611</v>
+        <v>10413.60788449813</v>
       </c>
       <c r="E6" t="n">
-        <v>-234015.7388338223</v>
+        <v>-234304.1879506845</v>
       </c>
       <c r="F6" t="n">
-        <v>50189.64547017666</v>
+        <v>49901.19635331471</v>
       </c>
       <c r="G6" t="n">
-        <v>-59200.74437156622</v>
+        <v>-59200.74437156605</v>
       </c>
       <c r="H6" t="n">
         <v>46463.33006086847</v>
       </c>
       <c r="I6" t="n">
-        <v>46463.33006086841</v>
+        <v>46463.33006086847</v>
       </c>
       <c r="J6" t="n">
-        <v>-140041.1840621881</v>
+        <v>-140041.1840621879</v>
       </c>
       <c r="K6" t="n">
-        <v>26583.62428106437</v>
+        <v>26583.62428106414</v>
       </c>
       <c r="L6" t="n">
-        <v>-79080.45015137061</v>
+        <v>-79080.45015137031</v>
       </c>
       <c r="M6" t="n">
-        <v>14898.81477909835</v>
+        <v>14898.81477909839</v>
       </c>
       <c r="N6" t="n">
-        <v>32594.49334273222</v>
+        <v>32594.49334273198</v>
       </c>
       <c r="O6" t="n">
-        <v>-38553.52685477599</v>
+        <v>-38553.52685477624</v>
       </c>
       <c r="P6" t="n">
-        <v>32594.49334273188</v>
+        <v>32594.49334273198</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="G2" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="H2" t="n">
         <v>350.5301170005546</v>
@@ -26716,16 +26716,16 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M2" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N2" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O2" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P2" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="G3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="H3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="I3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="J3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="K3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="L3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="M3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="N3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="O3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="P3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="F4" t="n">
         <v>68.39702598806991</v>
@@ -26820,16 +26820,16 @@
         <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725994</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725994</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725994</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725994</v>
+        <v>364.9110552725996</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688526</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="M2" t="n">
-        <v>22.11959820454186</v>
+        <v>22.11959820454183</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688526</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688526</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,28 +28111,28 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>207.1089656766806</v>
+        <v>192.8933914403536</v>
       </c>
       <c r="K11" t="n">
-        <v>157.9234874142799</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>97.63996736435226</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N11" t="n">
         <v>144.19328690304</v>
       </c>
       <c r="O11" t="n">
-        <v>217.6878698049956</v>
+        <v>217.6878698049955</v>
       </c>
       <c r="P11" t="n">
-        <v>206.0535829440046</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q11" t="n">
-        <v>168.6434343361249</v>
+        <v>118.0312476824491</v>
       </c>
       <c r="R11" t="n">
         <v>218.4500239600112</v>
@@ -28187,34 +28187,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346595</v>
+        <v>135.5688827973803</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P12" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>179.4682720520773</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28257,7 +28257,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>200.3281284629334</v>
       </c>
       <c r="G13" t="n">
         <v>167.689771139254</v>
@@ -28269,25 +28269,25 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J13" t="n">
-        <v>109.6934180900282</v>
+        <v>178.090444078098</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L13" t="n">
-        <v>170.2021294383906</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681482</v>
+        <v>162.3128602648846</v>
       </c>
       <c r="O13" t="n">
-        <v>160.9208955691381</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P13" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q13" t="n">
         <v>130.9853613927381</v>
@@ -28348,31 +28348,31 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>172.0741262922562</v>
+        <v>191.2414724212522</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="L14" t="n">
-        <v>218.4500239600112</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M14" t="n">
-        <v>214.7658150514811</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N14" t="n">
-        <v>62.88609418394308</v>
+        <v>212.5903128911099</v>
       </c>
       <c r="O14" t="n">
-        <v>149.2908438169257</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P14" t="n">
-        <v>218.4500239600112</v>
+        <v>78.88114968778493</v>
       </c>
       <c r="Q14" t="n">
         <v>168.6434343361249</v>
       </c>
       <c r="R14" t="n">
-        <v>182.2138048017995</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S14" t="n">
         <v>218.4500239600112</v>
@@ -28424,34 +28424,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P15" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2869599837859</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R15" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S15" t="n">
         <v>164.5345187941275</v>
@@ -28494,19 +28494,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>210.1326406866788</v>
       </c>
       <c r="G16" t="n">
         <v>167.689771139254</v>
       </c>
       <c r="H16" t="n">
-        <v>159.857510195687</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="I16" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J16" t="n">
-        <v>178.0904440780981</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
         <v>102.5727324697714</v>
@@ -28518,16 +28518,16 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>175.148814504079</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>185.1544684458672</v>
+        <v>199.382387380808</v>
       </c>
       <c r="R16" t="n">
         <v>164.4066131828346</v>
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="C17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="D17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="E17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="F17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="G17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="H17" t="n">
         <v>333.5818414060377</v>
       </c>
       <c r="I17" t="n">
-        <v>188.0507309546109</v>
+        <v>253.6842407411426</v>
       </c>
       <c r="J17" t="n">
-        <v>182.3485539971071</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
         <v>157.9234874142799</v>
@@ -28594,19 +28594,19 @@
         <v>159.5754064333817</v>
       </c>
       <c r="M17" t="n">
-        <v>146.3687890634112</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N17" t="n">
-        <v>212.5903128911099</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O17" t="n">
-        <v>217.6878698049956</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P17" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.6434343361249</v>
+        <v>237.0404603241948</v>
       </c>
       <c r="R17" t="n">
         <v>182.2138048017995</v>
@@ -28615,22 +28615,22 @@
         <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
-        <v>221.0151182874286</v>
+        <v>289.4121442754985</v>
       </c>
       <c r="U17" t="n">
         <v>319.8391528055694</v>
       </c>
       <c r="V17" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="X17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
       <c r="Y17" t="n">
-        <v>350.5301170005546</v>
+        <v>350.5301170005545</v>
       </c>
     </row>
     <row r="18">
@@ -28661,34 +28661,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P18" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R18" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S18" t="n">
         <v>164.5345187941275</v>
@@ -28755,13 +28755,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O19" t="n">
         <v>106.751788516009</v>
       </c>
       <c r="P19" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q19" t="n">
         <v>130.9853613927381</v>
@@ -28816,28 +28816,28 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
-        <v>188.0507309546109</v>
+        <v>256.4477569426808</v>
       </c>
       <c r="J20" t="n">
-        <v>138.7119396886106</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K20" t="n">
-        <v>157.9234874142799</v>
+        <v>223.5569972008116</v>
       </c>
       <c r="L20" t="n">
         <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634112</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N20" t="n">
         <v>144.19328690304</v>
       </c>
       <c r="O20" t="n">
-        <v>217.6878698049956</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P20" t="n">
         <v>161.3945396537014</v>
@@ -28846,16 +28846,16 @@
         <v>168.6434343361249</v>
       </c>
       <c r="R20" t="n">
-        <v>250.6108307898694</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S20" t="n">
-        <v>264.1110696273946</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T20" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
-        <v>300.1273610095143</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -28898,34 +28898,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P21" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R21" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S21" t="n">
         <v>164.5345187941275</v>
@@ -28992,13 +28992,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O22" t="n">
         <v>106.751788516009</v>
       </c>
       <c r="P22" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q22" t="n">
         <v>130.9853613927381</v>
@@ -29059,7 +29059,7 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
-        <v>138.7119396886106</v>
+        <v>204.3454494751423</v>
       </c>
       <c r="K23" t="n">
         <v>157.9234874142799</v>
@@ -29068,22 +29068,22 @@
         <v>227.9724324214516</v>
       </c>
       <c r="M23" t="n">
-        <v>214.7658150514811</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N23" t="n">
         <v>144.19328690304</v>
       </c>
       <c r="O23" t="n">
-        <v>214.9243536034575</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P23" t="n">
-        <v>229.7915656417713</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q23" t="n">
         <v>168.6434343361249</v>
       </c>
       <c r="R23" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S23" t="n">
         <v>195.7140436393247</v>
@@ -29092,7 +29092,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -29135,34 +29135,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P24" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R24" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S24" t="n">
         <v>164.5345187941275</v>
@@ -29229,13 +29229,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O25" t="n">
         <v>106.751788516009</v>
       </c>
       <c r="P25" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q25" t="n">
         <v>130.9853613927381</v>
@@ -29296,10 +29296,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="K26" t="n">
-        <v>92.21643408874145</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>221.0151182874286</v>
@@ -29314,7 +29314,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="P26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>221.0151182874286</v>
@@ -29323,7 +29323,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
@@ -29372,37 +29372,37 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346595</v>
+        <v>77.21836471453626</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P27" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
-        <v>171.6167436547176</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S27" t="n">
-        <v>164.5345187941275</v>
+        <v>208.9118472406823</v>
       </c>
       <c r="T27" t="n">
         <v>197.4218470422748</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -29448,16 +29448,16 @@
         <v>167.689771139254</v>
       </c>
       <c r="H28" t="n">
-        <v>159.857510195687</v>
+        <v>182.9011005602493</v>
       </c>
       <c r="I28" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
-        <v>168.8141940507389</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
         <v>101.8051034503207</v>
@@ -29499,7 +29499,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>221.0151182874286</v>
       </c>
     </row>
     <row r="29">
@@ -29542,10 +29542,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>134.2699491875594</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N29" t="n">
-        <v>221.0151182874286</v>
+        <v>130.3148639261337</v>
       </c>
       <c r="O29" t="n">
         <v>221.0151182874286</v>
@@ -29560,7 +29560,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29609,34 +29609,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985649</v>
+        <v>133.2055812664113</v>
       </c>
       <c r="J30" t="n">
-        <v>145.525937516877</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P30" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29670,7 +29670,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>208.3982004696669</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29682,28 +29682,28 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>221.0151182874286</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H31" t="n">
         <v>159.857510195687</v>
       </c>
       <c r="I31" t="n">
-        <v>147.7494808688102</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J31" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>217.7293165902319</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.02868467987658</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
@@ -29767,10 +29767,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
-        <v>221.0151182874286</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0151182874286</v>
+        <v>152.9059450310745</v>
       </c>
       <c r="K32" t="n">
         <v>221.0151182874286</v>
@@ -29779,22 +29779,22 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M32" t="n">
-        <v>50.7585169309321</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N32" t="n">
-        <v>36.75826682165359</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O32" t="n">
-        <v>221.0151182874286</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P32" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
-        <v>113.8687281338978</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
         <v>221.0151182874286</v>
@@ -29834,7 +29834,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>200.4107621537287</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -29843,37 +29843,37 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H33" t="n">
-        <v>108.160635135932</v>
+        <v>152.5379635824868</v>
       </c>
       <c r="I33" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P33" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R33" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S33" t="n">
         <v>164.5345187941275</v>
@@ -29922,34 +29922,34 @@
         <v>167.689771139254</v>
       </c>
       <c r="H34" t="n">
-        <v>159.857510195687</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="I34" t="n">
-        <v>147.7494808688102</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6934180900282</v>
+        <v>152.4090020412599</v>
       </c>
       <c r="K34" t="n">
-        <v>189.6818050366726</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q34" t="n">
-        <v>221.0151182874286</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R34" t="n">
         <v>164.4066131828346</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="C35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="D35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="E35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="F35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="G35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="H35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="I35" t="n">
-        <v>231.1575460805631</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L35" t="n">
-        <v>243.1347164919705</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M35" t="n">
-        <v>146.3687890634112</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P35" t="n">
-        <v>243.1347164919705</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="R35" t="n">
-        <v>113.8687281338978</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T35" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="V35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="W35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Y35" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
     </row>
     <row r="36">
@@ -30083,34 +30083,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L36" t="n">
-        <v>90.33383297114739</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P36" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q36" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30119,13 +30119,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U36" t="n">
-        <v>224.641496683099</v>
+        <v>231.6353037007806</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -30165,28 +30165,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>74.71172711439591</v>
+        <v>80.97840452203296</v>
       </c>
       <c r="K37" t="n">
-        <v>200.1812925322947</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O37" t="n">
         <v>106.751788516009</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.9853613927381</v>
+        <v>144.9812273173791</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
@@ -30195,16 +30195,16 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T37" t="n">
-        <v>227.4786990669493</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U37" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="V37" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="W37" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="C38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="D38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="E38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="F38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="G38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="H38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="I38" t="n">
-        <v>190.5517824762097</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L38" t="n">
-        <v>90.11879857351266</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="M38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N38" t="n">
-        <v>243.1347164919705</v>
+        <v>103.3345500256651</v>
       </c>
       <c r="O38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Q38" t="n">
-        <v>243.1347164919705</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T38" t="n">
-        <v>221.0151182874286</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="V38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="W38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Y38" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
     </row>
     <row r="39">
@@ -30317,37 +30317,37 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H39" t="n">
-        <v>115.1544421536134</v>
+        <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725114</v>
+        <v>89.31755892493263</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q39" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30362,7 +30362,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -30381,7 +30381,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30414,13 +30414,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O40" t="n">
-        <v>106.751788516009</v>
+        <v>128.5621850177646</v>
       </c>
       <c r="P40" t="n">
-        <v>207.7263104693277</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>130.9853613927381</v>
@@ -30435,13 +30435,13 @@
         <v>227.4786990669493</v>
       </c>
       <c r="U40" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="V40" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="W40" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="C41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="D41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="E41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="F41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="G41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="H41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="I41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="M41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N41" t="n">
-        <v>45.79815598039648</v>
+        <v>216.2889481137347</v>
       </c>
       <c r="O41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Q41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="R41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="V41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="W41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Y41" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
     </row>
     <row r="42">
@@ -30548,7 +30548,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>150.5000391012308</v>
       </c>
       <c r="G42" t="n">
         <v>135.7848683666891</v>
@@ -30557,34 +30557,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985649</v>
+        <v>78.29747578532815</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N42" t="n">
-        <v>73.06323650723331</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725114</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>79.8968786043891</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S42" t="n">
         <v>164.5345187941275</v>
@@ -30599,7 +30599,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -30633,7 +30633,7 @@
         <v>167.689771139254</v>
       </c>
       <c r="H43" t="n">
-        <v>163.0819495240533</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I43" t="n">
         <v>147.7494808688102</v>
@@ -30645,40 +30645,40 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>106.751788516009</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>207.7263104693279</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987656</v>
       </c>
       <c r="R43" t="n">
-        <v>243.1347164919705</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S43" t="n">
         <v>218.8751278244474</v>
       </c>
       <c r="T43" t="n">
-        <v>243.1347164919705</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U43" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="V43" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="W43" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="C44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="D44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="E44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="F44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="G44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="H44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="I44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="M44" t="n">
-        <v>243.1347164919705</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O44" t="n">
-        <v>48.89685536034114</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="R44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S44" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="V44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="W44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Y44" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
     </row>
     <row r="45">
@@ -30794,40 +30794,40 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175251</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725114</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P45" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.0581031398714</v>
+        <v>92.63626868422365</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T45" t="n">
-        <v>204.4156540599562</v>
+        <v>197.4218470422748</v>
       </c>
       <c r="U45" t="n">
         <v>224.641496683099</v>
@@ -30836,10 +30836,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>211.4554366261598</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -30873,7 +30873,7 @@
         <v>159.857510195687</v>
       </c>
       <c r="I46" t="n">
-        <v>147.7494808688102</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J46" t="n">
         <v>109.6934180900282</v>
@@ -30885,16 +30885,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O46" t="n">
-        <v>204.3603485785324</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q46" t="n">
         <v>130.9853613927381</v>
@@ -30903,19 +30903,19 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8751278244474</v>
+        <v>221.0984522638109</v>
       </c>
       <c r="T46" t="n">
         <v>227.4786990669493</v>
       </c>
       <c r="U46" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="V46" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="W46" t="n">
-        <v>243.1347164919705</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J11" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L12" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S12" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L13" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U13" t="n">
         <v>0.01089915222840405</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J14" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L15" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S15" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L16" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U16" t="n">
         <v>0.01089915222840405</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J17" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L18" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S18" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L19" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U19" t="n">
         <v>0.01089915222840405</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J20" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L21" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S21" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L22" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U22" t="n">
         <v>0.01089915222840405</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J23" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L24" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S24" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L25" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U25" t="n">
         <v>0.01089915222840405</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J26" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L27" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S27" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L28" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U28" t="n">
         <v>0.01089915222840405</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J29" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L30" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S30" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L31" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U31" t="n">
         <v>0.01089915222840405</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J32" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L33" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S33" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L34" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U34" t="n">
         <v>0.01089915222840405</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J35" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L36" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S36" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L37" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U37" t="n">
         <v>0.01089915222840405</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J38" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L39" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S39" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L40" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U40" t="n">
         <v>0.01089915222840405</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J41" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L42" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S42" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L43" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U43" t="n">
         <v>0.01089915222840405</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351313</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J44" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235583</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317973</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921886</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991731</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143512</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967788</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L45" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221536</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608217</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S45" t="n">
-        <v>4.42709511151691</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938705</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.199817790854074</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229859</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338303</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650059</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L46" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453767</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111454</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947723</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975088</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583158</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U46" t="n">
         <v>0.01089915222840405</v>
@@ -35404,16 +35404,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.3992930054003</v>
+        <v>30.39929300540037</v>
       </c>
       <c r="J11" t="n">
-        <v>68.39702598806991</v>
+        <v>54.18145175174302</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>58.87461752662956</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,19 +35422,19 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>68.39702598806991</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="P11" t="n">
-        <v>44.6590432903032</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821166</v>
+        <v>36.23621915821174</v>
       </c>
       <c r="S11" t="n">
-        <v>22.73598032068647</v>
+        <v>22.73598032068654</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>52.22885684391439</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>54.16910705312893</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>68.3970259880698</v>
       </c>
       <c r="O13" t="n">
-        <v>54.16910705312909</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.3992930054003</v>
+        <v>30.39929300540037</v>
       </c>
       <c r="J14" t="n">
-        <v>33.36218660364558</v>
+        <v>52.52953273264158</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>60.52653654573135</v>
       </c>
       <c r="L14" t="n">
-        <v>58.87461752662945</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>57.05548430630976</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>36.23621915821174</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068647</v>
+        <v>22.73598032068654</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>52.22885684391438</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35790,40 +35790,40 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>63.97361927687434</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.59251376432427</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>54.16910705312909</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.63350978653176</v>
       </c>
       <c r="J17" t="n">
-        <v>43.63661430849646</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35893,31 +35893,31 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>68.39702598806991</v>
       </c>
       <c r="V17" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,16 +36112,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451693</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,25 +36133,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="S20" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>48.68523419201482</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,31 +36364,31 @@
         <v>68.39702598806993</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>68.39702598806993</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>65.63350978653175</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>68.39702598806993</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.96438733281772</v>
+        <v>32.96438733281774</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K26" t="n">
-        <v>197.5161590723163</v>
+        <v>179.1877416597315</v>
       </c>
       <c r="L26" t="n">
-        <v>61.43971185404688</v>
+        <v>302.5376329830463</v>
       </c>
       <c r="M26" t="n">
+        <v>74.64632922401749</v>
+      </c>
+      <c r="N26" t="n">
+        <v>76.82183138438863</v>
+      </c>
+      <c r="O26" t="n">
         <v>433.3080812606695</v>
       </c>
-      <c r="N26" t="n">
-        <v>433.3080812606695</v>
-      </c>
-      <c r="O26" t="n">
-        <v>71.72427447050291</v>
-      </c>
       <c r="P26" t="n">
-        <v>394.2912351320691</v>
+        <v>173.2761168446406</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.3716839513037</v>
+        <v>52.37168395130374</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562909</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36695,10 +36695,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>40.9314267967448</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>23.04359036456229</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>66.24146158096751</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>110.8973678806242</v>
+        <v>110.8973678806243</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36795,7 +36795,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.266444419660388</v>
       </c>
     </row>
     <row r="29">
@@ -36829,34 +36829,34 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.2904978964771</v>
+        <v>82.30317859881801</v>
       </c>
       <c r="K29" t="n">
-        <v>400.2028599471601</v>
+        <v>63.09163087314872</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>433.3080812606695</v>
+        <v>405.4491395839817</v>
       </c>
       <c r="N29" t="n">
-        <v>76.82183138438856</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="P29" t="n">
-        <v>59.62057863372719</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.3716839513037</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R29" t="n">
-        <v>38.80131348562909</v>
+        <v>38.80131348562911</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="J30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>41.06164753846459</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.32534714817462</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>73.26563741861841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>123.8134823134171</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>62.81154450450875</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.96438733281772</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>82.30317859881796</v>
+        <v>190.0544851214206</v>
       </c>
       <c r="K32" t="n">
-        <v>400.2028599471601</v>
+        <v>176.6057097536373</v>
       </c>
       <c r="L32" t="n">
-        <v>61.43971185404688</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N32" t="n">
-        <v>347.4057813070771</v>
+        <v>76.82183138438863</v>
       </c>
       <c r="O32" t="n">
-        <v>433.3080812606695</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>59.62057863372719</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>273.1792742376045</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S32" t="n">
-        <v>25.3010746481039</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37130,16 +37130,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -37218,16 +37218,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>61.15760809174164</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>73.26563741861841</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>42.7155839512317</v>
       </c>
       <c r="K34" t="n">
-        <v>87.10907256690123</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.02975689469051</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.10681512595221</v>
+        <v>55.08398553735951</v>
       </c>
       <c r="J35" t="n">
-        <v>104.4227768033598</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K35" t="n">
-        <v>85.21122907769055</v>
+        <v>85.21122907769049</v>
       </c>
       <c r="L35" t="n">
-        <v>364.9110552725994</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>161.9264839393093</v>
       </c>
       <c r="N35" t="n">
-        <v>278.6852766703208</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="O35" t="n">
-        <v>364.9110552725994</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826905</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584557</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>60.92091169017088</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264575</v>
+        <v>47.42067285264568</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>6.993807017681434</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37415,7 +37415,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>6.99380701768152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.60856006252332</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>81.95254263750253</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>15.65601742502104</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.501051521598782</v>
+        <v>55.08398553735951</v>
       </c>
       <c r="J38" t="n">
-        <v>104.4227768033598</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769055</v>
+        <v>85.21122907769049</v>
       </c>
       <c r="L38" t="n">
-        <v>364.9110552725994</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="M38" t="n">
-        <v>209.6882913068264</v>
+        <v>353.3655813386451</v>
       </c>
       <c r="N38" t="n">
-        <v>98.94142958893042</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>93.84387267504476</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P38" t="n">
-        <v>81.74017683826905</v>
+        <v>81.74017683826902</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.2988724421464</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017095</v>
+        <v>60.92091169017088</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264575</v>
+        <v>47.42067285264568</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37613,7 +37613,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6.993807017681434</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>6.99380701768152</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>75.79816356076805</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>21.81039650175553</v>
       </c>
       <c r="P40" t="n">
-        <v>97.60856006252332</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735958</v>
+        <v>55.08398553735951</v>
       </c>
       <c r="J41" t="n">
-        <v>104.4227768033598</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
-        <v>85.21122907769055</v>
+        <v>85.21122907769049</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858874</v>
+        <v>83.55931005858871</v>
       </c>
       <c r="M41" t="n">
-        <v>364.9110552725994</v>
+        <v>96.76592742855927</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>72.0956612106947</v>
       </c>
       <c r="O41" t="n">
-        <v>93.84387267504476</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P41" t="n">
-        <v>279.5287283077802</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.2988724421464</v>
+        <v>114.3397828111698</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017095</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>47.42067285264568</v>
       </c>
       <c r="T41" t="n">
-        <v>22.11959820454184</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37844,7 +37844,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>6.99380701768152</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>6.993807017681434</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.224439328366299</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37953,19 +37953,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.72810330913589</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>15.65601742502112</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735958</v>
+        <v>55.08398553735951</v>
       </c>
       <c r="J44" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K44" t="n">
-        <v>364.9110552725994</v>
+        <v>85.21122907769049</v>
       </c>
       <c r="L44" t="n">
-        <v>88.83512648438887</v>
+        <v>83.55931005858871</v>
       </c>
       <c r="M44" t="n">
-        <v>96.76592742855928</v>
+        <v>321.1252857691347</v>
       </c>
       <c r="N44" t="n">
-        <v>98.94142958893042</v>
+        <v>98.9414295889304</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P44" t="n">
-        <v>81.74017683826905</v>
+        <v>221.8995058770145</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.2988724421464</v>
+        <v>74.49128215584551</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017095</v>
+        <v>60.92091169017088</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>47.42067285264568</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454184</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>6.993807017681434</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38135,7 +38135,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>6.99380701768152</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>95.38523562316018</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.60856006252332</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.223324439363397</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
